--- a/数据整理/stocks/A股/创业板/300957-贝泰妮.xlsx
+++ b/数据整理/stocks/A股/创业板/300957-贝泰妮.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4113,4 +4114,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>53</v>
+      </c>
+      <c r="D2" t="n">
+        <v>29.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>41</v>
+      </c>
+      <c r="D3" t="n">
+        <v>32.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300957-贝泰妮.xlsx
+++ b/数据整理/stocks/A股/创业板/300957-贝泰妮.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4122,7 +4123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4133,17 +4134,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4153,14 +4174,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>53</v>
-      </c>
-      <c r="D2" t="n">
-        <v>29.71</v>
+          <t>180012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华富裕主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>227.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.7395</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -4169,13 +4212,1483 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>009542</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华富利精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.3962</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010554</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8454</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010815</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>农银汇理新兴消费股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>39.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5760</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160926</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>40.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5553</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005176</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国精准医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>38.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4825</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011466</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6001</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009011</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏睿阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>70.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3369</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010555</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3336</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>660012</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>农银消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3044</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>960033</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3044</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>200006</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城消费增值混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2897</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009798</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2580</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012045</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2044</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>660005</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>农银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1877</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1741</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001009</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>上投摩根安全战略股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1495</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011467</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1444</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012545</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富荣福银混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>67.85</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>56.38</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004050</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>68.97</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001030</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011536</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>惠升惠益混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012046</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大成医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011537</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>惠升惠益混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000804</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>39.91</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006844</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>39.91</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012546</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富荣福银混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>67.85</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004051</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>68.97</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>38</v>
+      </c>
+      <c r="D2" t="n">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>53</v>
+      </c>
+      <c r="D3" t="n">
+        <v>29.71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>41</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>32.5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300957-贝泰妮.xlsx
+++ b/数据整理/stocks/A股/创业板/300957-贝泰妮.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5619,7 +5620,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5630,17 +5631,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5650,14 +5671,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>38</v>
-      </c>
-      <c r="D2" t="n">
-        <v>28.6</v>
+          <t>180012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华富裕主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>173.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.5978</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -5666,14 +5709,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>53</v>
-      </c>
-      <c r="D3" t="n">
-        <v>29.71</v>
+          <t>004851</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>118.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.2308</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -5682,13 +5747,1877 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>009542</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华富利精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3325</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160926</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>40.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>64.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8132</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010554</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5741</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005176</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国精准医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>33.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2408</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009163</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6512</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004424</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5945</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009011</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏睿阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5033</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012178</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华富饶精选三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4860</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011466</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3302</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010555</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2889</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009798</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>64.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2512</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160127</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方新兴消费增长股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2179</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014114</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发沪港深医药混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2056</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010731</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2007</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1045</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011467</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1032</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012545</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富荣福银混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>76.20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012358</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003032</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014115</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发沪港深医药混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004050</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004008</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中融鑫思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>35.78</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006121</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安双核驱动混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010732</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004809</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>新疆前海联合润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004009</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中融鑫思路灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>35.78</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006882</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰保兴健康消费混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>74.85</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006883</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰保兴健康消费混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>74.85</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012359</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003308</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005053</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>银河量化价值混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>80.73</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004635</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012546</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富荣福银混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>76.20</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003739</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>新华鑫弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>42.81</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004051</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005935</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>新疆前海联合润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>49</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27.61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>38</v>
+      </c>
+      <c r="D3" t="n">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>53</v>
+      </c>
+      <c r="D4" t="n">
+        <v>29.71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>41</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>32.5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300957-贝泰妮.xlsx
+++ b/数据整理/stocks/A股/创业板/300957-贝泰妮.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7532,7 +7533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7543,17 +7544,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7563,14 +7584,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>49</v>
-      </c>
-      <c r="D2" t="n">
-        <v>27.61</v>
+          <t>180012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华富裕主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>197.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>15.9229</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -7579,14 +7622,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>38</v>
-      </c>
-      <c r="D3" t="n">
-        <v>28.6</v>
+          <t>009542</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华富利精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7490</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -7595,14 +7660,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>53</v>
-      </c>
-      <c r="D4" t="n">
-        <v>29.71</v>
+          <t>014044</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华富利精选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7490</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -7611,13 +7698,2615 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>470006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>61.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2513</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010554</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>40.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8278</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160926</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>37.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7578</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005176</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国精准医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>35.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5523</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008065</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>46.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5102</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009664</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>39.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>71.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3753</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005453</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1855</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012178</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华富饶精选三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9680</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>690007</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>民生加银景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9211</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011285</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>民生加银价值优选6个月持有期股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.60</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6848</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011820</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴业兴智一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>78.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6712</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005454</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6175</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011186</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信达澳银至诚精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5410</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010555</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3786</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011821</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴业兴智一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>78.90</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3436</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009798</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2912</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005812</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>74.29</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2760</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011466</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2630</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008860</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>民生加银龙头优选股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2600</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>206007</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华消费优选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80.38</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2425</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009539</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴业睿进混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>79.65</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2359</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>610005</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>信达澳银红利回报混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2287</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009988</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>信达澳银蓝筹精选股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2231</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005165</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富荣福锦混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.98</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2018</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009665</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>71.43</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1535</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008066</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1507</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1229</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011467</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1207</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012545</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富荣福银混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.73</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011601</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1009</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001623</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>兴业国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>79.18</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>160645</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华精选回报三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002293</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方益和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002649</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>民生加银智造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001030</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004050</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>69.86</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001162</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>690009</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>民生加银红利回报混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>77.79</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011602</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012971</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010570</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009527</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>浙商汇金新兴消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010571</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011286</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>民生加银价值优选6个月持有期股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006882</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华泰保兴健康消费混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>63.11</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006883</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华泰保兴健康消费混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>63.11</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009513</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012972</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009540</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>兴业睿进混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>79.65</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009514</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001638</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>162211</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>泰达宏利品质生活混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009720</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>民生加银景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005164</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>富荣福锦混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>81.98</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002330</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>兴业聚宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>012546</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>富荣福银混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>85.73</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>014953</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>信达澳银至诚精选混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>960015</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合O</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>004051</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>69.86</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>015462</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>69</v>
+      </c>
+      <c r="D2" t="n">
+        <v>41.97</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>49</v>
+      </c>
+      <c r="D3" t="n">
+        <v>27.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>38</v>
+      </c>
+      <c r="D4" t="n">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>53</v>
+      </c>
+      <c r="D5" t="n">
+        <v>29.71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>41</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>32.5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300957-贝泰妮.xlsx
+++ b/数据整理/stocks/A股/创业板/300957-贝泰妮.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="D2" t="n">
-        <v>41.97</v>
+        <v>42.02</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D3" t="n">
-        <v>27.61</v>
+        <v>41.97</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D4" t="n">
-        <v>28.6</v>
+        <v>27.61</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D5" t="n">
-        <v>29.71</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>53</v>
+      </c>
+      <c r="D6" t="n">
+        <v>29.71</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>41</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>32.5</v>
       </c>
     </row>
@@ -566,6 +583,4194 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H110"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>180012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华富裕主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>170.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.1533</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004851</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>81.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1947</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006113</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富创新医药主题混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>85.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9799</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009542</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华富利精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3436</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005176</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国精准医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5081</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>470006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>46.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4917</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008065</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>37.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2200</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010554</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>28.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1295</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009664</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>29.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>66.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9526</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012178</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华富饶精选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8859</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>690007</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>民生加银景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8727</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012389</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信澳品质回报6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8120</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009163</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.40</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6838</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005454</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6500</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011285</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>民生加银价值优选6个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6093</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160926</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>64.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6060</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011820</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴业兴智一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5325</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005453</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5320</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001766</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4998</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011186</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信澳至诚精选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4462</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010109</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14.46</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3629</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010715</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3397</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010555</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3188</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>420003</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天弘永定价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2763</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011821</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>兴业兴智一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2704</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010887</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>69.72</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2688</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008860</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>民生加银龙头优选股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2400</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>610005</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>信澳红利回报混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2267</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005812</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2182</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009798</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>64.14</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2138</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001280</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银华聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2062</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009368</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.19</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1940</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>206007</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华消费优选混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1925</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009988</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>信澳蓝筹精选股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1891</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>164205</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>天弘文化新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1842</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009539</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>兴业睿进混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1803</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1721</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>015195</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇添富新兴消费股票D</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1712</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001726</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇添富新兴消费股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1697</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002269</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银华大数据灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1630</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005461</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方希元可转债债券</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>13.89</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>20.72</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1514</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005498</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>银华积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1465</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008066</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1434</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005165</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富荣福锦混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009665</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>66.68</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1187</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010888</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>南方消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>69.72</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>580002</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014526</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇添富中盘潜力增长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002326</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>银华聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012214</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>民生加银核心资产股票A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011601</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012545</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>富荣福银混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001030</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>003032</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>平安医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>84.53</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002649</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>民生加银智造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011602</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009369</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>85.19</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002293</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>南方益和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>75.22</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>160645</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>鹏华精选回报三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>82.54</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>690009</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>民生加银红利回报混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>76.40</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>180028</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>银华永祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>77.38</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>012971</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009619</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>67.16</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>013771</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中加龙头精选混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>580005</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>78.51</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011286</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>民生加银价值优选6个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>007056</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>银华积极精选混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010716</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>013772</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中加龙头精选混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006759</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>银河乐活优萃混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>002547</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>民生加银养老服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010331</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>天弘消费股票A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>000411</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>景顺长城优质成长</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>012972</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010332</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>天弘消费股票C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>012215</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>民生加银核心资产股票C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>009540</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>兴业睿进混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>003938</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>南方荣尊混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>014527</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>汇添富中盘潜力增长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>002598</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>平安消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>162211</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>泰达宏利品质生活混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>71.38</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>002599</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>平安消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>009720</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>民生加银景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>007257</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>凯石沣混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>70.00</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>014044</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>银华富利精选混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>015463</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>天弘永定价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>005164</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>富荣福锦混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>002640</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>37.60</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>014932</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>015689</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>富国价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>015194</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>汇添富新兴消费股票C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>002330</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>兴业聚宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>77.00</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>003939</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>南方荣尊混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>007258</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>凯石沣混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>70.00</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>006843</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>37.60</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>012546</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>富荣福银混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>014953</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>信澳至诚精选混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>009620</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>67.16</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>015475</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>天弘文化新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>011241</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>011242</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>78.51</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>960015</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合O</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>014045</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>银华积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>015462</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3237,7 +7442,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5149,7 +9354,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6645,7 +10850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8707,7 +12912,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300957-贝泰妮.xlsx
+++ b/数据整理/stocks/A股/创业板/300957-贝泰妮.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="D2" t="n">
-        <v>42.02</v>
+        <v>31.39</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="D3" t="n">
-        <v>41.97</v>
+        <v>42.02</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D4" t="n">
-        <v>27.61</v>
+        <v>41.97</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D5" t="n">
-        <v>28.6</v>
+        <v>27.61</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D6" t="n">
-        <v>29.71</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>53</v>
+      </c>
+      <c r="D7" t="n">
+        <v>29.71</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>41</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>32.5</v>
       </c>
     </row>
@@ -583,6 +600,3360 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>180012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华富裕主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>166.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.9935</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010730</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华心佳两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>106.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0115</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005794</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华心怡灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8418</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>45.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3864</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>690007</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>民生加银景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7268</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银主题优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7137</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011357</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7097</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014460</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6164</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012178</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华富饶精选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5973</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011285</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>民生加银价值优选6个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5265</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001220</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>民生加银研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4754</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160926</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4445</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161040</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3878</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013884</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>交银主题优选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>73.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3147</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>570005</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺德成长优势混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3130</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>180010</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华优质增长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>19.80</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.28</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3089</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001280</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>76.76</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2801</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>75.56</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2710</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519909</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2585</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011405</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>15.51</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2420</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>420003</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天弘永定价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2162</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008860</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>民生加银龙头优选股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2104</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009990</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1920</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005812</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1893</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>164205</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天弘文化新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1724</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014043</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银华心怡灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1714</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>206007</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华消费优选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1671</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009852</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银华品质消费股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1638</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009798</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1570</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002269</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银华大数据灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>82.71</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1451</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005498</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银华积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1277</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014461</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>平安品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1252</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005165</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富荣福锦混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002304</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1207</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003191</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>创金合信消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1096</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1073</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010122</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003032</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>平安医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002326</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银华聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>76.76</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012036</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>诺德兴远优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>64.57</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012214</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>民生加银核心资产股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>信澳新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>78.65</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013755</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中银证券内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004707</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>景顺长城睿成灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>36.44</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009991</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002649</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>民生加银智造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003190</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>创金合信消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011358</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012971</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>690009</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>民生加银红利回报混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006302</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>银华行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011991</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>汇安泓利一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>24.88</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>160645</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鹏华精选回报三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>74.91</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002293</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>南方益和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>74.90</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007048</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011992</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇安泓利一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>24.88</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>014220</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>恒越医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005212</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>汇安稳裕债券</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>22.17</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>580005</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>78.84</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011286</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>民生加银价值优选6个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006759</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>银河乐活优萃混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>003561</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>53.74</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>002547</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>民生加银养老服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>002594</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>工银瑞信现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>80.34</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004719</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>景顺长城睿成灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>36.44</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>013756</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中银证券内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>012972</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>014221</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>恒越医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010123</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>002598</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>平安消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>信澳新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>51.24</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012215</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>民生加银核心资产股票C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>002599</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>平安消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>162211</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>泰达宏利品质生活混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>76.66</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>009720</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>民生加银景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>005164</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>富荣福锦混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>015463</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>天弘永定价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>015475</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>天弘文化新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>014045</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>银华积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>016564</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>80.72</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011242</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>78.84</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>003562</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>53.74</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4770,7 +8141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7442,7 +10813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9354,7 +12725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10850,7 +14221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12912,7 +16283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
